--- a/src/lithium/data/nouvelles valeurs molaritéintra.xlsx
+++ b/src/lithium/data/nouvelles valeurs molaritéintra.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12680" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,6 +91,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,11 +149,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -283,11 +294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2136624712"/>
-        <c:axId val="2137137352"/>
+        <c:axId val="-2095028040"/>
+        <c:axId val="-2095031624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2136624712"/>
+        <c:axId val="-2095028040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -297,12 +308,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137137352"/>
+        <c:crossAx val="-2095031624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137137352"/>
+        <c:axId val="-2095031624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,7 +324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136624712"/>
+        <c:crossAx val="-2095028040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -431,11 +442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2136941272"/>
-        <c:axId val="2137622584"/>
+        <c:axId val="2132293656"/>
+        <c:axId val="2132509208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2136941272"/>
+        <c:axId val="2132293656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,12 +456,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137622584"/>
+        <c:crossAx val="2132509208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2137622584"/>
+        <c:axId val="2132509208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136941272"/>
+        <c:crossAx val="2132293656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -873,7 +884,7 @@
   <dimension ref="B3:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="C9:F9"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -882,10 +893,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -897,7 +908,7 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J3" t="s">
@@ -914,7 +925,7 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4">
@@ -928,7 +939,7 @@
         <f>E4*0.000000001/0.0000091</f>
         <v>3.1664057020633888E-4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J4">
@@ -945,7 +956,7 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5">
@@ -975,7 +986,7 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="C6">
+      <c r="C6" s="2">
         <v>10</v>
       </c>
       <c r="D6">
@@ -1005,7 +1016,7 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="C7">
+      <c r="C7" s="2">
         <v>30</v>
       </c>
       <c r="D7">
@@ -1035,7 +1046,7 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="C8">
+      <c r="C8" s="2">
         <v>60</v>
       </c>
       <c r="D8">
@@ -1065,7 +1076,7 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="C9">
+      <c r="C9" s="2">
         <v>90</v>
       </c>
       <c r="D9">
